--- a/Data/Transitions/19571962Translation.xlsx
+++ b/Data/Transitions/19571962Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1727,9 +1727,6 @@
   </si>
   <si>
     <t>{226.0: 0.9845670939053099, 216.0: 0.015432906094690033}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3863,7 +3860,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>571</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3874,7 +3871,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4083,7 +4080,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4193,7 +4190,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4413,7 +4410,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4457,7 +4454,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4600,7 +4597,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>571</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4644,7 +4641,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4974,7 +4971,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5084,7 +5081,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5128,7 +5125,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5139,7 +5136,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5337,7 +5334,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5447,7 +5444,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5612,7 +5609,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5645,7 +5642,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5667,7 +5664,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5678,7 +5675,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5722,7 +5719,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5843,7 +5840,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5876,7 +5873,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6052,7 +6049,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6074,7 +6071,7 @@
         <v>352</v>
       </c>
       <c r="C351" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6085,7 +6082,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6184,7 +6181,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6404,7 +6401,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6415,7 +6412,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6811,7 +6808,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7196,7 +7193,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7207,7 +7204,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7251,7 +7248,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7328,7 +7325,7 @@
         <v>466</v>
       </c>
       <c r="C465" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -7515,7 +7512,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -7548,7 +7545,7 @@
         <v>486</v>
       </c>
       <c r="C485" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -7592,7 +7589,7 @@
         <v>490</v>
       </c>
       <c r="C489" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -7735,7 +7732,7 @@
         <v>503</v>
       </c>
       <c r="C502" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -7790,7 +7787,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -7801,7 +7798,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -7911,7 +7908,7 @@
         <v>519</v>
       </c>
       <c r="C518" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -8054,7 +8051,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8076,7 +8073,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8087,7 +8084,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8131,7 +8128,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="539" spans="1:3">
